--- a/docs/jig/handling/business-rule.xlsx
+++ b/docs/jig/handling/business-rule.xlsx
@@ -121,7 +121,8 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Handling event type. Either requires or prohibits a carrier movement</t>
+    <t xml:space="preserve">Handling event type. Either requires or prohibits a carrier movement+</t>
   </si>
   <si>
     <t>区分</t>
@@ -295,9 +296,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -358,16 +359,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.39453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.71484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.96875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.75390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="19.87890625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="99.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.66796875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="103.62109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -640,16 +641,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.2265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="53.39453125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="35.375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="20.7578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.55078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.390625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="4.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="37.33984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.0859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.98046875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="8.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.9296875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="2.9296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -730,14 +731,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="18.6484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="41.31640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="193.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.7734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.71484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="43.4140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="202.32421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -806,18 +807,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.55078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.08984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="53.39453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.80859375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="21.4609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="22.24609375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="15.921875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.1328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.6328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="31.69140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="16.12890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.9296875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="10.3515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/jig/handling/business-rule.xlsx
+++ b/docs/jig/handling/business-rule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="80">
   <si>
     <t/>
   </si>
@@ -40,12 +40,21 @@
     <t>com.practicalddd.cargotracker.handling.domain.model.aggregates</t>
   </si>
   <si>
+    <t>集約</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.handling.domain.model.commands</t>
   </si>
   <si>
+    <t>コマンド</t>
+  </si>
+  <si>
     <t>com.practicalddd.cargotracker.handling.domain.model.valueobjects</t>
   </si>
   <si>
+    <t>値オブジェクト</t>
+  </si>
+  <si>
     <t>クラス名</t>
   </si>
   <si>
@@ -76,7 +85,8 @@
     <t>HandlingActivity</t>
   </si>
   <si>
-    <t>Root Aggregate for the Handling Bounded Context</t>
+    <t xml:space="preserve">荷役+</t>
   </si>
   <si>
     <t>不明</t>
@@ -88,7 +98,7 @@
     <t>HandlingActivityRegistrationCommand</t>
   </si>
   <si>
-    <t>Command to Register an Handling Activity</t>
+    <t>荷役登録</t>
   </si>
   <si>
     <t>[CargoHandlingController, HandlingActivityRegistrationCommandDTOAssembler, HandlingActivityRegistrationCommandService]</t>
@@ -97,6 +107,9 @@
     <t>CargoBookingId</t>
   </si>
   <si>
+    <t>貨物予約ID</t>
+  </si>
+  <si>
     <t>文字列</t>
   </si>
   <si>
@@ -106,6 +119,9 @@
     <t>HandlingActivityHistory</t>
   </si>
   <si>
+    <t>荷役履歴</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
@@ -115,20 +131,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Location class represented by a unique 5-diigit UN Location code.</t>
+    <t>位置</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Handling event type. Either requires or prohibits a carrier movement-</t>
+    <t>荷役タイプ</t>
   </si>
   <si>
     <t>区分</t>
   </si>
   <si>
     <t>VoyageNumber</t>
+  </si>
+  <si>
+    <t>航海番号</t>
   </si>
   <si>
     <t>定数宣言</t>
@@ -317,7 +335,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n" s="0">
         <v>1.0</v>
@@ -325,10 +343,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n" s="0">
         <v>1.0</v>
@@ -336,10 +354,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n" s="0">
         <v>5.0</v>
@@ -361,7 +379,7 @@
   <cols>
     <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.640625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="10.9296875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="11.9296875" customWidth="true" bestFit="true"/>
@@ -376,31 +394,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
@@ -408,13 +426,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>1.0</v>
@@ -432,21 +450,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>21</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>0.0</v>
@@ -464,21 +482,21 @@
         <v>0</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>1.0</v>
@@ -496,21 +514,21 @@
         <v>0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>0.0</v>
@@ -528,21 +546,21 @@
         <v>0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>1.0</v>
@@ -560,21 +578,21 @@
         <v>0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
@@ -592,21 +610,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>1.0</v>
@@ -624,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -643,7 +661,7 @@
   <cols>
     <col min="1" max="1" width="55.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="4.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="37.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.0859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
@@ -658,60 +676,60 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>0</v>
@@ -746,51 +764,51 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n" s="0">
         <v>6.0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +829,7 @@
     <col min="2" max="2" width="31.98828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="31.69140625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="55.9765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.9296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="11.9296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.9296875" customWidth="true" bestFit="true"/>
@@ -826,54 +844,54 @@
         <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s" s="0">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s" s="0">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s" s="0">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s" s="0">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>1.0</v>
@@ -894,24 +912,24 @@
         <v>0</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>1.0</v>
@@ -932,24 +950,24 @@
         <v>0</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>1.0</v>
@@ -970,24 +988,24 @@
         <v>0</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n" s="0">
         <v>1.0</v>
@@ -1008,24 +1026,24 @@
         <v>0</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n" s="0">
         <v>1.0</v>
@@ -1046,24 +1064,24 @@
         <v>0</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n" s="0">
         <v>0.0</v>
@@ -1084,24 +1102,24 @@
         <v>0</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n" s="0">
         <v>0.0</v>
@@ -1110,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>0</v>
@@ -1127,19 +1145,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n" s="0">
         <v>0.0</v>
@@ -1151,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="0">
         <v>0</v>
@@ -1165,19 +1183,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>0.0</v>
@@ -1186,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s" s="0">
         <v>0</v>
@@ -1203,19 +1221,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>1.0</v>
@@ -1224,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>0</v>
@@ -1241,19 +1259,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n" s="0">
         <v>0.0</v>
@@ -1274,24 +1292,24 @@
         <v>0</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="D13" t="s" s="0">
-        <v>65</v>
-      </c>
       <c r="E13" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n" s="0">
         <v>1.0</v>
@@ -1300,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="0">
         <v>0</v>
@@ -1309,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s" s="0">
         <v>0</v>
@@ -1317,19 +1335,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n" s="0">
         <v>2.0</v>
@@ -1338,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="0">
         <v>0</v>
@@ -1347,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L14" t="s" s="0">
         <v>0</v>
@@ -1355,19 +1373,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n" s="0">
         <v>0.0</v>
@@ -1376,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="0">
         <v>0</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L15" t="s" s="0">
         <v>0</v>
@@ -1393,19 +1411,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F16" t="n" s="0">
         <v>0.0</v>
@@ -1426,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
